--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiminchi\DOCUME~1\MobaXterm\slash\RemoteFiles\1182232_4_10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HC\DOCUME~1\MobaXterm\slash\RemoteFiles\67100_2_17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D170E3-7561-4E9B-BCF9-4103FCA65EF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="experiment" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -103,14 +102,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>cache line</t>
+    <t>cache line(個數)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1027,11 +1026,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1090,7 @@
       </c>
       <c r="L2" s="1">
         <f>(J14+J9-K9-K14)/(J2+J9+J14)</f>
-        <v>3.7159698019680429E-2</v>
+        <v>1.5360729634657647E-3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1119,7 +1118,7 @@
       </c>
       <c r="L3" s="1">
         <f>(J10+J15-K10-K15)/(J3+J10+J15)</f>
-        <v>0.16084005634524268</v>
+        <v>2.441629787883412E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1143,11 +1142,11 @@
         <v>180273</v>
       </c>
       <c r="K4">
-        <v>180273</v>
+        <v>18273</v>
       </c>
       <c r="L4" s="1">
         <f>(J11+J16-K11-K16)/(J4+J11+J16)</f>
-        <v>0.29977251538318106</v>
+        <v>5.453596497768499E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1175,7 +1174,7 @@
       </c>
       <c r="L5" s="1">
         <f>(J12+J17-K12-K17)/(J5+J12+J17)</f>
-        <v>0.2854433953219157</v>
+        <v>5.0887803326591366E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1211,10 +1210,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>10368</v>
+        <v>2048</v>
       </c>
       <c r="K9" s="2">
-        <v>2048</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1233,10 +1232,10 @@
         <v>3</v>
       </c>
       <c r="J10" s="2">
-        <v>9600</v>
+        <v>1536</v>
       </c>
       <c r="K10" s="2">
-        <v>1536</v>
+        <v>768</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1255,10 +1254,10 @@
         <v>4</v>
       </c>
       <c r="J11" s="2">
-        <v>19200</v>
+        <v>3072</v>
       </c>
       <c r="K11" s="2">
-        <v>3072</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1266,10 +1265,10 @@
         <v>5</v>
       </c>
       <c r="J12" s="2">
-        <v>12800</v>
+        <v>2048</v>
       </c>
       <c r="K12" s="2">
-        <v>2048</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1288,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>82944</v>
+        <v>65536</v>
       </c>
       <c r="K14">
         <v>65536</v>
@@ -1299,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="J15">
-        <v>101376</v>
+        <v>49152</v>
       </c>
       <c r="K15">
         <v>49152</v>
@@ -1310,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="J16">
-        <v>202752</v>
+        <v>98304</v>
       </c>
       <c r="K16">
         <v>98304</v>
@@ -1321,7 +1320,7 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <v>135168</v>
+        <v>65536</v>
       </c>
       <c r="K17">
         <v>65536</v>
@@ -1337,6 +1336,10 @@
       <c r="J20">
         <v>31526.03082</v>
       </c>
+      <c r="K20">
+        <f>CEILING(J20,1)</f>
+        <v>31527</v>
+      </c>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
@@ -1345,6 +1348,10 @@
       <c r="J21">
         <v>15955.5638</v>
       </c>
+      <c r="K21">
+        <f t="shared" ref="K21:K23" si="1">CEILING(J21,1)</f>
+        <v>15956</v>
+      </c>
     </row>
     <row r="22" spans="7:11" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
@@ -1353,6 +1360,10 @@
       <c r="J22">
         <v>31197.968939999999</v>
       </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>31198</v>
+      </c>
     </row>
     <row r="23" spans="7:11" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
@@ -1360,6 +1371,10 @@
       </c>
       <c r="J23">
         <v>20825.910380000001</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>20826</v>
       </c>
     </row>
   </sheetData>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HC\DOCUME~1\MobaXterm\slash\RemoteFiles\67100_2_17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiminchi\DOCUME~1\MobaXterm\slash\RemoteFiles\1182232_7_50\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02A23F1-F6B2-4515-B317-A441E8CBF062}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>layer1</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -102,14 +103,22 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>cache line(個數)</t>
+    <t>fmap</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmap</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t># cache line</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1026,11 +1035,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1326,19 +1335,26 @@
         <v>65536</v>
       </c>
     </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="20" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
       <c r="I20" t="s">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>31526.03082</v>
+        <v>10176.49</v>
       </c>
       <c r="K20">
-        <f>CEILING(J20,1)</f>
-        <v>31527</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.25">
@@ -1346,11 +1362,10 @@
         <v>3</v>
       </c>
       <c r="J21">
-        <v>15955.5638</v>
+        <v>2980.08</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21:K23" si="1">CEILING(J21,1)</f>
-        <v>15956</v>
+        <v>864</v>
       </c>
     </row>
     <row r="22" spans="7:11" x14ac:dyDescent="0.25">
@@ -1358,11 +1373,10 @@
         <v>4</v>
       </c>
       <c r="J22">
-        <v>31197.968939999999</v>
+        <v>2391.66</v>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
-        <v>31198</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="23" spans="7:11" x14ac:dyDescent="0.25">
@@ -1370,11 +1384,10 @@
         <v>5</v>
       </c>
       <c r="J23">
-        <v>20825.910380000001</v>
+        <v>1730.9</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
-        <v>20826</v>
+        <v>1152</v>
       </c>
     </row>
   </sheetData>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiminchi\DOCUME~1\MobaXterm\slash\RemoteFiles\1182232_7_50\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiminchi\DOCUME~1\MobaXterm\slash\RemoteFiles\1638500_2_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02A23F1-F6B2-4515-B317-A441E8CBF062}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5116E81-1921-43BD-8FE8-AF892DF23E4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="4455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experiment" sheetId="1" r:id="rId1"/>
+    <sheet name="RTi2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>layer1</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -107,11 +108,63 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t># cache line</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fmap(tiling)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmap(tiling)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fmap(no tiling)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmap(no tiling)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average idx bit (tiling)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average bitmap bit (tiling)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>layer4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>bmap</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t># cache line</t>
+    <t>layer1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -705,14 +758,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1201,7 @@
         <v>180273</v>
       </c>
       <c r="K4">
-        <v>18273</v>
+        <v>180273</v>
       </c>
       <c r="L4" s="1">
         <f>(J11+J16-K11-K16)/(J4+J11+J16)</f>
@@ -1173,7 +1223,7 @@
         <v>0.42552483002663899</v>
       </c>
       <c r="I5" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J5">
         <v>133643</v>
@@ -1181,7 +1231,7 @@
       <c r="K5">
         <v>133643</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <f>(J12+J17-K12-K17)/(J5+J12+J17)</f>
         <v>5.0887803326591366E-3</v>
       </c>
@@ -1197,7 +1247,7 @@
         <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -1216,12 +1266,12 @@
         <v>0.52825066370685902</v>
       </c>
       <c r="I9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
+        <v>29</v>
+      </c>
+      <c r="J9">
         <v>2048</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
         <v>1024</v>
       </c>
     </row>
@@ -1240,10 +1290,10 @@
       <c r="I10" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>1536</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <v>768</v>
       </c>
     </row>
@@ -1260,23 +1310,23 @@
         <v>0.28558443402925721</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="2">
+        <v>30</v>
+      </c>
+      <c r="J11">
         <v>3072</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11">
         <v>1536</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="2">
+        <v>31</v>
+      </c>
+      <c r="J12">
         <v>2048</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12">
         <v>1024</v>
       </c>
     </row>
@@ -1285,7 +1335,7 @@
         <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
         <v>16</v>
@@ -1293,7 +1343,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J14">
         <v>65536</v>
@@ -1304,7 +1354,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J15">
         <v>49152</v>
@@ -1315,7 +1365,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="J16">
         <v>98304</v>
@@ -1326,7 +1376,7 @@
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="J17">
         <v>65536</v>
@@ -1337,18 +1387,18 @@
     </row>
     <row r="19" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
         <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="7:11" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J20">
         <v>10176.49</v>
@@ -1370,7 +1420,7 @@
     </row>
     <row r="22" spans="7:11" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="J22">
         <v>2391.66</v>
@@ -1381,7 +1431,7 @@
     </row>
     <row r="23" spans="7:11" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J23">
         <v>1730.9</v>
@@ -1395,4 +1445,316 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>599126</v>
+      </c>
+      <c r="E2">
+        <v>599126</v>
+      </c>
+      <c r="F2" s="1">
+        <f>(D14+D9-E9-E14)/(D2+D9+D14)</f>
+        <v>1.5359001664891781E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>263832</v>
+      </c>
+      <c r="E3">
+        <v>263832</v>
+      </c>
+      <c r="F3" s="1">
+        <f>(D10+D15-E10-E15)/(D3+D10+D15)</f>
+        <v>2.441816100724914E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>180264</v>
+      </c>
+      <c r="E4">
+        <v>180264</v>
+      </c>
+      <c r="F4" s="1">
+        <f>(D11+D16-E11-E16)/(D4+D11+D16)</f>
+        <v>5.4537707711972729E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>133624</v>
+      </c>
+      <c r="E5">
+        <v>133624</v>
+      </c>
+      <c r="F5" s="1">
+        <f>(D12+D17-E12-E17)/(D5+D12+D17)</f>
+        <v>5.0892608643791498E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2048</v>
+      </c>
+      <c r="E9">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1536</v>
+      </c>
+      <c r="E10">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>3072</v>
+      </c>
+      <c r="E11">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>2048</v>
+      </c>
+      <c r="E12">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>65536</v>
+      </c>
+      <c r="E14">
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>49152</v>
+      </c>
+      <c r="E15">
+        <v>49152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>98304</v>
+      </c>
+      <c r="E16">
+        <v>98304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>65536</v>
+      </c>
+      <c r="E17">
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>10177.69</v>
+      </c>
+      <c r="E20">
+        <v>15038.62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>2979.83</v>
+      </c>
+      <c r="E21">
+        <v>4505.63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>2391.56</v>
+      </c>
+      <c r="E22">
+        <v>3213.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>1730.72</v>
+      </c>
+      <c r="E23">
+        <v>2375.9699999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1568</v>
+      </c>
+      <c r="E27">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>864</v>
+      </c>
+      <c r="E28">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1728</v>
+      </c>
+      <c r="E29">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>1152</v>
+      </c>
+      <c r="E30">
+        <v>1152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>